--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D55FE8AF-13E2-4338-B8EE-44F11ED11128}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D36872D-97A4-4436-B8B8-0E181B4F6D74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21555" yWindow="4665" windowWidth="14400" windowHeight="7455" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
+    <workbookView xWindow="1520" yWindow="1450" windowWidth="14400" windowHeight="7460" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>交通費リスト</t>
     <rPh sb="0" eb="3">
@@ -53,6 +53,37 @@
     <t>日</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出発</t>
+    <rPh sb="0" eb="2">
+      <t>シュッパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>到着</t>
+    <rPh sb="0" eb="2">
+      <t>トウチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片道・往復</t>
+    <rPh sb="0" eb="2">
+      <t>カタミチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -418,25 +449,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C84A2D-5268-4AAC-BA66-03B41B3E0EBF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D36872D-97A4-4436-B8B8-0E181B4F6D74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914DB341-ED2E-4360-95C4-28BFC92E3B53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1450" windowWidth="14400" windowHeight="7460" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +103,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -131,8 +139,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +463,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -463,7 +474,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">

--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914DB341-ED2E-4360-95C4-28BFC92E3B53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20D48C-F356-4511-B1C5-942A8847A483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>交通費リスト</t>
     <rPh sb="0" eb="3">
@@ -84,6 +84,25 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>オウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤→黒へ変更。この分を追記</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -110,7 +129,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -460,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C84A2D-5268-4AAC-BA66-03B41B3E0EBF}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -493,6 +511,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20D48C-F356-4511-B1C5-942A8847A483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC3162-E812-4409-A8A5-DB7170DF23F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
@@ -129,6 +129,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -481,7 +482,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC3162-E812-4409-A8A5-DB7170DF23F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20D48C-F356-4511-B1C5-942A8847A483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
@@ -129,7 +129,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -482,7 +481,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20D48C-F356-4511-B1C5-942A8847A483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C500EE-97C4-47E6-86FF-EBB36B2B6D27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>交通費リスト</t>
     <rPh sb="0" eb="3">
@@ -103,6 +103,17 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バスセンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大通り</t>
+    <rPh sb="0" eb="2">
+      <t>オオドオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -478,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C84A2D-5268-4AAC-BA66-03B41B3E0EBF}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -516,6 +527,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C500EE-97C4-47E6-86FF-EBB36B2B6D27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A3CEC-F2B0-4341-8F95-77FAA9015C5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
@@ -107,7 +107,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バスセンター</t>
+    <t>札幌</t>
+    <rPh sb="0" eb="2">
+      <t>サッポロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -492,7 +495,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -529,7 +532,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>

--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A3CEC-F2B0-4341-8F95-77FAA9015C5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B5FB06-750C-43FF-99FC-229600100681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>交通費リスト</t>
     <rPh sb="0" eb="3">
@@ -118,6 +118,10 @@
     <rPh sb="0" eb="2">
       <t>オオドオ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バスセンター</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -125,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +149,22 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -171,11 +191,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C84A2D-5268-4AAC-BA66-03B41B3E0EBF}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -531,17 +557,31 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B5FB06-750C-43FF-99FC-229600100681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9200EE46-5E89-4006-89D4-41D96A332165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>交通費リスト</t>
     <rPh sb="0" eb="3">
@@ -122,6 +122,16 @@
   </si>
   <si>
     <t>バスセンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白石</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -129,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,15 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -191,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,9 +201,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C84A2D-5268-4AAC-BA66-03B41B3E0EBF}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -566,7 +565,7 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -582,6 +581,20 @@
       </c>
       <c r="D6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9200EE46-5E89-4006-89D4-41D96A332165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59DE86-8BE5-45A8-B47C-B695098BAE78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
@@ -164,7 +164,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -520,7 +519,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/交通費.xlsx
+++ b/交通費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiko8\Desktop\share1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59DE86-8BE5-45A8-B47C-B695098BAE78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C500EE-97C4-47E6-86FF-EBB36B2B6D27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E44A2461-8FAF-4A88-98B2-8A27617A1FFF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>交通費リスト</t>
     <rPh sb="0" eb="3">
@@ -107,30 +107,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>札幌</t>
-    <rPh sb="0" eb="2">
-      <t>サッポロ</t>
-    </rPh>
+    <t>バスセンター</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>大通り</t>
     <rPh sb="0" eb="2">
       <t>オオドオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バスセンター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>白石</t>
-    <rPh sb="0" eb="1">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>イシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -139,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +142,6 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -192,14 +168,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C84A2D-5268-4AAC-BA66-03B41B3E0EBF}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -555,44 +528,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
